--- a/plots/basic_stats/two_var_stats/allmus_country_name_vs_accreditation.xlsx
+++ b/plots/basic_stats/two_var_stats/allmus_country_name_vs_accreditation.xlsx
@@ -381,10 +381,10 @@
         </is>
       </c>
       <c r="B2">
-        <v>1280</v>
+        <v>1303</v>
       </c>
       <c r="C2">
-        <v>1754</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>41</v>
       </c>
       <c r="C3">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
@@ -407,10 +407,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="C4">
-        <v>334</v>
+        <v>354</v>
       </c>
     </row>
     <row r="5">
@@ -420,10 +420,10 @@
         </is>
       </c>
       <c r="B5">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C5">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
